--- a/scene_cat_exp_2023.2.2_english/input_files/67_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/67_scenecat_block_order.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_2</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -375,7 +375,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>kitchens_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -411,16 +411,16 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -434,13 +434,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -471,10 +471,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
